--- a/nomenclature_parser/in/Nomenclatures RC-EDA.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="292" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3188D3FD-D617-4A98-BA66-419BEC16E761}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E310B031-6B29-4C35-87D1-2EB766B84207}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Informations sur le requérent" sheetId="4" r:id="rId1"/>
-    <sheet name="Nature de fait" sheetId="5" r:id="rId2"/>
-    <sheet name="Type de lieu" sheetId="6" r:id="rId3"/>
-    <sheet name="Risque, menace et sensibilité" sheetId="1" r:id="rId4"/>
-    <sheet name="Motif de recours médico-secouri" sheetId="7" r:id="rId5"/>
-    <sheet name="Nombre de patients-victimes" sheetId="2" r:id="rId6"/>
-    <sheet name="Lien avec la victime" sheetId="11" r:id="rId7"/>
-    <sheet name="Effet à obtenir" sheetId="10" r:id="rId8"/>
+    <sheet name="Sexe (2)" sheetId="28" r:id="rId1"/>
+    <sheet name="Informations sur le requérant" sheetId="4" r:id="rId2"/>
+    <sheet name="Nature de fait" sheetId="5" r:id="rId3"/>
+    <sheet name="Type de lieu" sheetId="6" r:id="rId4"/>
+    <sheet name="Risque, menace et sensibilité" sheetId="1" r:id="rId5"/>
+    <sheet name="Motif de recours médico-secouri" sheetId="7" r:id="rId6"/>
+    <sheet name="Nombre de patients-victimes" sheetId="2" r:id="rId7"/>
+    <sheet name="Type de requérant" sheetId="11" r:id="rId8"/>
+    <sheet name="Difficultés de communication" sheetId="13" r:id="rId9"/>
+    <sheet name="Effet à obtenir" sheetId="10" r:id="rId10"/>
+    <sheet name="Attribution du dossier" sheetId="12" r:id="rId11"/>
+    <sheet name="Sexe" sheetId="26" r:id="rId12"/>
+    <sheet name="Niveau de soin" sheetId="29" r:id="rId13"/>
+    <sheet name="Type de décision" sheetId="30" r:id="rId14"/>
+    <sheet name="Feuil20" sheetId="31" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="1453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1633">
   <si>
     <t>Référentiel nomenclature</t>
   </si>
@@ -4697,12 +4704,552 @@
   <si>
     <t>EO.07.02</t>
   </si>
+  <si>
+    <t>SI-SAMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elodie Falcioni </t>
+  </si>
+  <si>
+    <t>DRM</t>
+  </si>
+  <si>
+    <t>DRMMRU</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>DENT</t>
+  </si>
+  <si>
+    <t>GERIA</t>
+  </si>
+  <si>
+    <t>PEDIA</t>
+  </si>
+  <si>
+    <t>PSY</t>
+  </si>
+  <si>
+    <t>TOXICOL</t>
+  </si>
+  <si>
+    <t>INDISPMU</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>PLANBLAN</t>
+  </si>
+  <si>
+    <t>PCSAMU</t>
+  </si>
+  <si>
+    <t>DRMMRL</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>INDISPMG</t>
+  </si>
+  <si>
+    <t>ABSML</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>DREG</t>
+  </si>
+  <si>
+    <t>DRARM</t>
+  </si>
+  <si>
+    <t>DRMED</t>
+  </si>
+  <si>
+    <t>DRPHARMA</t>
+  </si>
+  <si>
+    <t>DRDENT</t>
+  </si>
+  <si>
+    <t>DRINFO</t>
+  </si>
+  <si>
+    <t>DOS-SIS</t>
+  </si>
+  <si>
+    <t>DOS-FDO</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D-MALV</t>
+  </si>
+  <si>
+    <t>ERR</t>
+  </si>
+  <si>
+    <t>NRP</t>
+  </si>
+  <si>
+    <t>MALV</t>
+  </si>
+  <si>
+    <t>FAX</t>
+  </si>
+  <si>
+    <t>ITERATIF</t>
+  </si>
+  <si>
+    <t>D-IDENT</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>PERSO</t>
+  </si>
+  <si>
+    <t>DRM MRU</t>
+  </si>
+  <si>
+    <t>Régulation MU</t>
+  </si>
+  <si>
+    <t>Régulation dentaire</t>
+  </si>
+  <si>
+    <t>Régulation gériatrique</t>
+  </si>
+  <si>
+    <t>Régulation pédiatrie</t>
+  </si>
+  <si>
+    <t>Régulation psychiatrie</t>
+  </si>
+  <si>
+    <t>Régulation toxicologique</t>
+  </si>
+  <si>
+    <t>Régulation ML par indisponibilité MU</t>
+  </si>
+  <si>
+    <t>Régulation de crise - NOVI</t>
+  </si>
+  <si>
+    <t>Régulation Plan Blanc</t>
+  </si>
+  <si>
+    <t>Régulation par un PC mobile</t>
+  </si>
+  <si>
+    <t>DRM MRL</t>
+  </si>
+  <si>
+    <t>Régulation ML</t>
+  </si>
+  <si>
+    <t>Régulation MU par indisponibilité ML</t>
+  </si>
+  <si>
+    <t>Régulation MU par absence de régulation ML</t>
+  </si>
+  <si>
+    <t>Dossier Régulation</t>
+  </si>
+  <si>
+    <t>Pas d’acte de régulation médicale - Prise en charge ARM</t>
+  </si>
+  <si>
+    <t>Pas d’acte de régulation médicale - Transmission d'informations sur un médecin (procédure dégradée)</t>
+  </si>
+  <si>
+    <t>Pas d’acte de régulation médicale - Transmission d'informations sur une pharmacie</t>
+  </si>
+  <si>
+    <t>Pas d’acte de régulation médicale - Transmission d'informations sur un dentiste</t>
+  </si>
+  <si>
+    <t>Pas d’acte de régulation médicale - Information générale</t>
+  </si>
+  <si>
+    <t>Pas d’acte de régulation médicale - Appel pour les pompiers</t>
+  </si>
+  <si>
+    <t>Pas d’acte de régulation médicale - Appel pour les forces de l’ordre</t>
+  </si>
+  <si>
+    <t>Erreur / Malveillant</t>
+  </si>
+  <si>
+    <t>Erreur de numéro, erreur d'acheminement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appel raccroché / pas de réponse </t>
+  </si>
+  <si>
+    <t>Appel malveillant, canular</t>
+  </si>
+  <si>
+    <t>Tonalité de fax, porteuse</t>
+  </si>
+  <si>
+    <t>Dossier existant, appel itératif (hors SI-Samu)</t>
+  </si>
+  <si>
+    <t>Appel identifié</t>
+  </si>
+  <si>
+    <t>Appel administratif</t>
+  </si>
+  <si>
+    <t>Appel personnel</t>
+  </si>
+  <si>
+    <t>Autre type d’appel</t>
+  </si>
+  <si>
+    <t>Dossier de régulation médicale</t>
+  </si>
+  <si>
+    <t>Dossier de type médecine d’urgence</t>
+  </si>
+  <si>
+    <t>Dossier de type médecine d’urgence régulé par un médecin urgentiste. Le dossier devient de type DRM</t>
+  </si>
+  <si>
+    <t>Dossier régulé par un chirurgien dentiste au sein du CRRA. Le dossier devient de type DRM</t>
+  </si>
+  <si>
+    <t>Dossier régulé par un gériatre au sein du CRRA. Le dossier devient de type DRM</t>
+  </si>
+  <si>
+    <t>Dossier régulé par un pédiatre au sein du CRRA. Le dossier devient de type DRM</t>
+  </si>
+  <si>
+    <t>Dossier régulé par un psychiatre au sein du CRRA. Le dossier devient de type DRM</t>
+  </si>
+  <si>
+    <t>Dossier régulé par un toxicologue au sein du CRRA. Le dossier devient de type DRM</t>
+  </si>
+  <si>
+    <t>Dossier de type médecine d'urgence régulé par un médecin libéral du fait de l’indisponibilité des MU. Le dossier devient de type DRM</t>
+  </si>
+  <si>
+    <t>Dossier relevant de la gestion de crise – NOmbreuses Victimes. Le dossier devient de type DRM</t>
+  </si>
+  <si>
+    <t>Dossier régulé dans le cadre d’ un dispositif plan blanc. Le dossier devient de type DRM</t>
+  </si>
+  <si>
+    <t>Dossier régulé depuis un poste de commandement  mobile. Le dossier devient de type DRM</t>
+  </si>
+  <si>
+    <t>Dossier de type médecine libérale</t>
+  </si>
+  <si>
+    <t>Dossier de type médecine libérale régulé par un médecin libéral. Le dossier devient de type DRM</t>
+  </si>
+  <si>
+    <t>Dossier de type médecine libérale régulé par un médecin urgentiste du fait de l’indisponibilité des ML. Le dossier devient de type DRM</t>
+  </si>
+  <si>
+    <t>Dossier de type médecine libérale régulé par un médecin urgentiste du fait de l’absence de régulation ML. Le dossier devient de type DRM</t>
+  </si>
+  <si>
+    <t>Dossier de régulation</t>
+  </si>
+  <si>
+    <t>Dossier ne relevant pas de la régulation médicale et pas dans le cadre des autre cas identifié (voir cas suivant). Le dossier est de type DR</t>
+  </si>
+  <si>
+    <t>Dossier ne relevant pas de la régulation médicale – réponse apportée à une demande de renseignements sur un médecin. Le dossier est de type DR</t>
+  </si>
+  <si>
+    <t>Dossier ne relevant pas de la régulation médicale – réponse apportée à une demande de renseignements sur une pharmacie. Le dossier est de type DR</t>
+  </si>
+  <si>
+    <t>Dossier ne relevant pas de la régulation médicale – réponse apportée à une demande de renseignements sur un dentiste. Le dossier est de type DR</t>
+  </si>
+  <si>
+    <t>Dossier ne relevant pas de la régulation médicale – réponse apportée à une demande de renseignements d’ordre général. Le dossier est de type DR</t>
+  </si>
+  <si>
+    <t>Dossier ne rentrant pas dans le cadre des missions du Samu et confié aux pompiers. Le dossier est de type DR</t>
+  </si>
+  <si>
+    <t>Dossier ne rentrant pas dans le cadre des missions du Samu et confié aux forces de l'ordre. Le dossier est de type DR</t>
+  </si>
+  <si>
+    <t>Dossier</t>
+  </si>
+  <si>
+    <t>Dossier de type erreur ou appel malveillant</t>
+  </si>
+  <si>
+    <t>Le requérant s’est trompé de numéro de téléphone ou a mal été orienté par un interlocuteur précédent. Le dossier reste de type D</t>
+  </si>
+  <si>
+    <t>L’appel est raccroché ou sans réponse de l’appelant à l’ouverture du dossier. Le dossier reste de type D</t>
+  </si>
+  <si>
+    <t>Appel malveillant : insultes, canular, fausses informations. Il ne s’agit pas d’une erreur de numéro. Le dossier reste de type D</t>
+  </si>
+  <si>
+    <t>Tonalité de fax ou d’une porteuse  présente au décroché. Le dossier reste de type D</t>
+  </si>
+  <si>
+    <t>Appels pour un dossier déjà existant. Entraine la recherche et l’ouverture du dossier préexistant avec rattachement de l’appel à ce dossier (option à supprimer dès l'intégration au SI-Samu)</t>
+  </si>
+  <si>
+    <t>Dossier en rapport avec un appel qui n'est ni un DR ni un DRM</t>
+  </si>
+  <si>
+    <t>Dossier ne relevant pas de la régulation médicale – et concerne la gestion administrative d’un dossier clôturé. Le dossier reste de type D</t>
+  </si>
+  <si>
+    <t>L’appel concerne une communication pour un membre du personnel et a un caractère privé. Le dossier reste de type D</t>
+  </si>
+  <si>
+    <t>Autre type d’appel non régulé et relevant pas d’un problème médical, social ou sanitaire. Le dossier reste de type D</t>
+  </si>
+  <si>
+    <t>PBAPL</t>
+  </si>
+  <si>
+    <t>DEVENIRD</t>
+  </si>
+  <si>
+    <t>AUCUNE</t>
+  </si>
+  <si>
+    <t>MUET</t>
+  </si>
+  <si>
+    <t>VISION</t>
+  </si>
+  <si>
+    <t>LANGUE</t>
+  </si>
+  <si>
+    <t>PANIQUE</t>
+  </si>
+  <si>
+    <t>HOSTILE</t>
+  </si>
+  <si>
+    <t>AGITE</t>
+  </si>
+  <si>
+    <t>IMPOSS</t>
+  </si>
+  <si>
+    <t>Aucune difficulté de communication</t>
+  </si>
+  <si>
+    <t>Muet ou malentendant (troubles de la parole ou de l'audition)</t>
+  </si>
+  <si>
+    <t>Malvoyant, troubles de la vision</t>
+  </si>
+  <si>
+    <t>Barrière de la langue (langue étrangère)</t>
+  </si>
+  <si>
+    <t>Panique de l’appelant</t>
+  </si>
+  <si>
+    <t>Appelant hostile, agressif</t>
+  </si>
+  <si>
+    <t>Incohérence, agitation, intoxication</t>
+  </si>
+  <si>
+    <t>Autres difficultés de communication</t>
+  </si>
+  <si>
+    <t>Absence de communication</t>
+  </si>
+  <si>
+    <t>Aucune difficulté de communication rencontrée entre l’appelant et la personne qualifiant ou régulant le dossier.</t>
+  </si>
+  <si>
+    <t>Difficultés de communication liées aux caractéristiques de l’appelant, muet ou ayant des troubles prononcés de l’élocution, malentendant ou ayant des troubles prononcés de l’audition ne lui permettant pas d’interagir dans de bonnes conditions avec son interlocuteur du CRRA</t>
+  </si>
+  <si>
+    <t>Difficultés de communication liées aux caractéristiques de l’appelant, malvoyant ou ayant des troubles prononcés de la vue ne lui permettant pas de décrire correctement la situation pour laquelle il appelle</t>
+  </si>
+  <si>
+    <t>Difficultés de communication avec l’appelant liées au fait que l’appelant ne comprend pas ou mal le français ou ne le parle pas ou mal</t>
+  </si>
+  <si>
+    <t>Difficultés de communication avec l’appelant liées à une situation de stress extrême ou de panique de l’appelant, du patient ou de l’entourage ne lui permettant pas de décrire correctement la situation pour laquelle il appelle</t>
+  </si>
+  <si>
+    <t>Difficultés de communication avec l’appelant liées à une situation d’hostilité ou d’agressivité de l’appelant ne permettant pas une bonne compréhension du problème pour lequel il appelle</t>
+  </si>
+  <si>
+    <t>Patient psychiatrique ayant des difficultés pour exprimer sa plainte ou patient alcoolisé, agité et incohérent dans l’incapacité de formuler les raisons de son appel</t>
+  </si>
+  <si>
+    <t>Autres troubles humains ou techniques, de l’appelant ou de l’entourage, empêchant la bonne interaction entre l’appelant et la personne qualifiant ou régulant le dossier et la bonne compréhension de la situation pour laquelle il appelle</t>
+  </si>
+  <si>
+    <t>Pas de communication possible avec l’appelant (ex : pas d'echange vocal, appel raccroché prématurement sans contre appel possible, ...)</t>
+  </si>
+  <si>
+    <t>Daphné Leccia/ Elodie Falcioni</t>
+  </si>
+  <si>
+    <t>MASC</t>
+  </si>
+  <si>
+    <t>FEM</t>
+  </si>
+  <si>
+    <t>INCONNU</t>
+  </si>
+  <si>
+    <t>Masculin</t>
+  </si>
+  <si>
+    <t>Féminin</t>
+  </si>
+  <si>
+    <t>Autre sexe (ni masculin, ni féminin)</t>
+  </si>
+  <si>
+    <t>Inconnu</t>
+  </si>
+  <si>
+    <t>Qualifie les individus de sexe masculin</t>
+  </si>
+  <si>
+    <t>Qualifie les individus de sexe féminin</t>
+  </si>
+  <si>
+    <t>Qualifie les individus de troisième genre (individu considéré comme n ’étant ni homme ni femme, à la fois homme et femme, ou neutre)</t>
+  </si>
+  <si>
+    <t>Le sexe de la personne n'est pas connu</t>
+  </si>
+  <si>
+    <t>NOMENC_SEXE</t>
+  </si>
+  <si>
+    <t>GRAVITE</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>Urgence Vitale</t>
+  </si>
+  <si>
+    <t>Urgence vraie</t>
+  </si>
+  <si>
+    <t>Continuité de soins</t>
+  </si>
+  <si>
+    <t>Conseil ou PMT</t>
+  </si>
+  <si>
+    <t>Urgence vitale patente ou latente imposant l’envoi du Smur</t>
+  </si>
+  <si>
+    <t>Urgence vraie sans détresse vitale nécessitant l’envoi d’un médecin, d’une ambulance ou d’un VSAV. Le délai d’intervention est immédiat par défaut ou contractualisé entre le médecin régulateur et le requérant</t>
+  </si>
+  <si>
+    <t>Situation relevant de la continuité de soins. Le délai ne constituant pas un facteur de risque</t>
+  </si>
+  <si>
+    <t>Situation pouvant être traitée par un conseil médical ou prescription médicamenteuse par téléphone</t>
+  </si>
+  <si>
+    <t>CONSEIL</t>
+  </si>
+  <si>
+    <t>PMT</t>
+  </si>
+  <si>
+    <t>INTER</t>
+  </si>
+  <si>
+    <t>ORIENT</t>
+  </si>
+  <si>
+    <t>Conseil Médical</t>
+  </si>
+  <si>
+    <t>#Conseil Médical</t>
+  </si>
+  <si>
+    <t>Prescription médicamenteuse téléphonique</t>
+  </si>
+  <si>
+    <t>#PMT</t>
+  </si>
+  <si>
+    <t>Décision d’intervention</t>
+  </si>
+  <si>
+    <t>#Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Décision d’orientation ou de transport </t>
+  </si>
+  <si>
+    <t>#Orientation Transport</t>
+  </si>
+  <si>
+    <t>Pas de décision supplémentaire</t>
+  </si>
+  <si>
+    <t>#Décision</t>
+  </si>
+  <si>
+    <t>Conduite à tenir donnée à distance par le médecin régulateur sans intervention d’un tiers. Le conseil médical peut être donné à la demande du patient ou à chaque fois que le médecin régulateur juge que l’appel ne nécessite pas un examen médical. Cette décision peut être accompagnée ou non d’une prescription médicamenteuse téléphonique. </t>
+  </si>
+  <si>
+    <t>Réalisation d'une prescription médicamenteuse téléphonique</t>
+  </si>
+  <si>
+    <t>Décision qui implique l’envoi d’un moyen d’intervention (ressource mobile) : Smur, médical, paramédical, pompier ous transporteur sanitaire.</t>
+  </si>
+  <si>
+    <t>La décision d’orientation est caractérisée par le fait de renseigner la destination du patient (vers un acteur de santé, vers une structure ou activité de soins, vers un autre lieu). La décision de transport permet, en complément, de décider de la prise en charge du transport du patient vers ce lieu de destination et de décider du niveau de soin du transport.</t>
+  </si>
+  <si>
+    <t>En raison des décisions déjà prises par un tiers, des éventuels moyens d’intervention déjà présents sur place, le médecin régulateur en charge de la régulation du dossier ne prend pas de décision supplémentaire en attendant l’évolution de la situation. </t>
+  </si>
+  <si>
+    <t>PASPLUS</t>
+  </si>
+  <si>
+    <t>NIVSOIN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4763,6 +5310,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4813,7 +5372,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4852,13 +5411,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Accent5" xfId="1" builtinId="48"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{289B6461-38A1-47EB-AD2F-3A7ED8C77D6E}"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -6095,6 +6766,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3399FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6107,110 +6783,125 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}" name="Table1345" displayName="Table1345" ref="A9:D27" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}" name="Table1345" displayName="Table1345" ref="A9:D27" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A9:D27" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CC3785D5-DB9A-4D60-862F-F8E090985E56}" name="Code" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{0E29D007-DD2B-4361-B0B6-3124B15DD8DA}" name="Libellé niveau 1" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{2F058103-5AD9-4F2B-A662-54DD0A6EEAE9}" name="Description" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{E9F88BD4-157D-4840-B9EE-0122B96E7D08}" name="Commentaire" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{CC3785D5-DB9A-4D60-862F-F8E090985E56}" name="Code" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{0E29D007-DD2B-4361-B0B6-3124B15DD8DA}" name="Libellé niveau 1" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{2F058103-5AD9-4F2B-A662-54DD0A6EEAE9}" name="Description" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{E9F88BD4-157D-4840-B9EE-0122B96E7D08}" name="Commentaire" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}" name="Table137" displayName="Table137" ref="A9:F308" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}" name="Table137" displayName="Table137" ref="A9:F308" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A9:F308" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F19F314C-B88E-48A0-9134-0480F8CF5303}" name="Code" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{600128F5-608F-4F75-ADD7-09E47F508C64}" name="Libellé niveau 1" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{69B015DB-FEAC-41E1-97CC-32D2D70D1E5F}" name="Libellé niveau 2" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{DDCC42E9-EE40-4BB4-8B10-7F7964B45C24}" name="Libellé niveau 3" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{B18EF0E1-670C-4280-93AF-67B4FB66EE2F}" name="Description" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{B87504F2-E81C-4AC3-AFB9-7F1544707E97}" name="Commentaire" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{F19F314C-B88E-48A0-9134-0480F8CF5303}" name="Code" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{600128F5-608F-4F75-ADD7-09E47F508C64}" name="Libellé niveau 1" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{69B015DB-FEAC-41E1-97CC-32D2D70D1E5F}" name="Libellé niveau 2" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{DDCC42E9-EE40-4BB4-8B10-7F7964B45C24}" name="Libellé niveau 3" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{B18EF0E1-670C-4280-93AF-67B4FB66EE2F}" name="Description" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{B87504F2-E81C-4AC3-AFB9-7F1544707E97}" name="Commentaire" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}" name="Table138" displayName="Table138" ref="A9:F188" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}" name="Table138" displayName="Table138" ref="A9:F188" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A9:F188" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{68E43B73-9A3F-4404-BFFA-9D2C83024853}" name="Code" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{4EE1502F-9D93-480B-9E76-CF9D4340C70D}" name="Libellé niveau 1" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{7B9C8786-A455-41BE-8B0E-D205B49FACF5}" name="Libellé niveau 2" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{254DB673-9BA3-42AE-9511-308D7BCD2FC5}" name="Libellé niveau 3" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{704D9D94-904F-4137-9FA6-AF5A0D326491}" name="Description" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{E0842B8F-A591-4C1E-A821-41D16E287145}" name="Commentaire" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{68E43B73-9A3F-4404-BFFA-9D2C83024853}" name="Code" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{4EE1502F-9D93-480B-9E76-CF9D4340C70D}" name="Libellé niveau 1" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{7B9C8786-A455-41BE-8B0E-D205B49FACF5}" name="Libellé niveau 2" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{254DB673-9BA3-42AE-9511-308D7BCD2FC5}" name="Libellé niveau 3" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{704D9D94-904F-4137-9FA6-AF5A0D326491}" name="Description" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{E0842B8F-A591-4C1E-A821-41D16E287145}" name="Commentaire" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}" name="Table1" displayName="Table1" ref="A9:D46" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}" name="Table1" displayName="Table1" ref="A9:D46" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A9:D46" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{41A202AF-0A91-4C8F-B1DD-1D8B78C88B67}" name="Code" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{787839B6-641F-4C38-B883-AA61D5F0F7BA}" name="Libellé niveau 1" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{EA8B2165-6449-4C73-AB38-E548BEDD1CC6}" name="Description" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{E8FC5318-5334-4D19-B99B-DF7F88C59DC8}" name="Commentaire" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{41A202AF-0A91-4C8F-B1DD-1D8B78C88B67}" name="Code" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{787839B6-641F-4C38-B883-AA61D5F0F7BA}" name="Libellé niveau 1" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{EA8B2165-6449-4C73-AB38-E548BEDD1CC6}" name="Description" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{E8FC5318-5334-4D19-B99B-DF7F88C59DC8}" name="Commentaire" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}" name="Table139" displayName="Table139" ref="A9:E61" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}" name="Table139" displayName="Table139" ref="A9:E61" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A9:E61" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1E16E225-2AC0-42BC-891A-DE42FEC023D6}" name="Code" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{EAF0C6A6-B766-472E-B250-B4F25993D46E}" name="Libellé niveau 1" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{81750735-53CA-440E-972E-333E415A08B6}" name="Libellé niveau 2" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{D8928B6E-6058-44ED-A422-FB52AA55B676}" name="Description" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{8EE4E12B-725F-47C8-B534-7688D1544C58}" name="Commentaire" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{1E16E225-2AC0-42BC-891A-DE42FEC023D6}" name="Code" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{EAF0C6A6-B766-472E-B250-B4F25993D46E}" name="Libellé niveau 1" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{81750735-53CA-440E-972E-333E415A08B6}" name="Libellé niveau 2" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{D8928B6E-6058-44ED-A422-FB52AA55B676}" name="Description" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{8EE4E12B-725F-47C8-B534-7688D1544C58}" name="Commentaire" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8BF6ADF-B677-473E-8ABE-51264084FE99}" name="Table13" displayName="Table13" ref="A9:D14" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8BF6ADF-B677-473E-8ABE-51264084FE99}" name="Table13" displayName="Table13" ref="A9:D14" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A9:D14" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{98FD5D52-1BC0-4054-8358-F924F6A4BAB5}" name="Code" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{09CB4271-3531-437E-96F1-FF338E0F430E}" name="Libellé niveau 1" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{2E9B13FA-3333-42A6-BF3A-F3B7AD42D98A}" name="Description" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{EBA22499-7DD5-405F-82CA-7058FFC1AB2F}" name="Commentaire" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{98FD5D52-1BC0-4054-8358-F924F6A4BAB5}" name="Code" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{09CB4271-3531-437E-96F1-FF338E0F430E}" name="Libellé niveau 1" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{2E9B13FA-3333-42A6-BF3A-F3B7AD42D98A}" name="Description" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{EBA22499-7DD5-405F-82CA-7058FFC1AB2F}" name="Commentaire" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}" name="Table134" displayName="Table134" ref="A9:D30" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}" name="Table134" displayName="Table134" ref="A9:D30" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A9:D30" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{865D8B57-135B-4BFA-938D-B62BC39AC970}" name="Code"/>
-    <tableColumn id="2" xr3:uid="{E07D1CE2-997E-4A59-9869-D1EFB60F0809}" name="Libellé niveau 1" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{5BEB0E75-8B05-44A8-99B9-CB9CB8DD7E0C}" name="Description" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0C12ADAB-8B2E-4D44-B007-B1D25D7BAB07}" name="Commentaire" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{E07D1CE2-997E-4A59-9869-D1EFB60F0809}" name="Libellé niveau 1" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{5BEB0E75-8B05-44A8-99B9-CB9CB8DD7E0C}" name="Description" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{0C12ADAB-8B2E-4D44-B007-B1D25D7BAB07}" name="Commentaire" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DACF081D-DC50-403B-ADE1-57E5CB746E1E}" name="Table136" displayName="Table136" ref="A9:E55" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}" name="Table13410" displayName="Table13410" ref="A9:F30" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A9:F30" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{9B470DB1-BD5A-4D37-B9A2-613B4968664F}" name="Code"/>
+    <tableColumn id="2" xr3:uid="{C642441E-F665-4E14-A6AD-9D3C8769E0C7}" name="Libellé niveau 1" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{2FD7C62E-F3A8-479C-9488-B45577D597CB}" name="Libellé niveau 2" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{E474BB77-DCDC-415E-B7AC-9F51B933F4E0}" name="Libellé niveau 3" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{39AFB611-6F39-4451-B931-6D448FB9F381}" name="Description" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{2D0AD57C-4196-46DA-AA26-8087A6B411DB}" name="Commentaire" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DACF081D-DC50-403B-ADE1-57E5CB746E1E}" name="Table136" displayName="Table136" ref="A9:E55" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A9:E55" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B3B3839E-7AA1-40F2-8D40-8B4C4130C33F}" name="Code" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{5B41AD54-EF54-419D-9557-D10165E3ECF6}" name="Libellé niveau 1" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{653C927B-56B9-4E39-8BC4-421DABCEC24B}" name="Libellé niveau 2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{582D657A-1BB1-4D1A-882E-2FC91EF4A158}" name="Description" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{DD9122FE-5E05-4333-A4C2-0761574C47AC}" name="Commentaire" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B3B3839E-7AA1-40F2-8D40-8B4C4130C33F}" name="Code" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{5B41AD54-EF54-419D-9557-D10165E3ECF6}" name="Libellé niveau 1" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{653C927B-56B9-4E39-8BC4-421DABCEC24B}" name="Libellé niveau 2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{582D657A-1BB1-4D1A-882E-2FC91EF4A158}" name="Description" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{DD9122FE-5E05-4333-A4C2-0761574C47AC}" name="Commentaire" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6478,14 +7169,2999 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D08095-3358-432D-9EA5-5AEC81666010}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" customWidth="1"/>
+    <col min="6" max="6" width="61.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="20" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="20" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="20" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="20" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3700FB-CD0A-4D38-965B-161A1B9D93F3}">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45218</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40BA41-A85C-4FB9-AA6F-684436E03697}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.7109375" customWidth="1"/>
+    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="18" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="18" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="18" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="18" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="18" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="18" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="18" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="18" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="18" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="18" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="18" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="18" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="18" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="18" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="18" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="18" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="18" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="18" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="18" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="18" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="18" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="18" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="18" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="18" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="18" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="18" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="18" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="18" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="18" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="18" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="18" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="18" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="18" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="18" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="18" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="18" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F45" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEF6AB4-B57F-443F-8D0D-BF02A9C5B3B9}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" customWidth="1"/>
+    <col min="6" max="6" width="61.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="20" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="20" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="20" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="20" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2B8C8C-87E7-449D-BC82-028AFFEC58AC}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="18" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="20" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="18" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="20" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="18" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="20" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="18" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="20" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DA8262-2222-433E-B162-3866A2FDA084}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="18" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="18" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="18" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="18" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="18" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF0C217-B984-434C-BFBC-BE2A43ACAFC2}">
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="18" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="18" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="18" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="18" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="18" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0545B1B-517B-4CE5-AAD0-165B9A1E1BDF}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
@@ -6659,7 +10335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24418BCA-6BA9-46F7-8F30-546B2F7203DE}">
   <dimension ref="A1:F308"/>
   <sheetViews>
@@ -6667,7 +10343,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" customWidth="1"/>
@@ -6757,7 +10433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="65.45">
+    <row r="10" spans="1:6" ht="64.5">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -6783,7 +10459,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="26.45">
+    <row r="12" spans="1:6" ht="26.25">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -6797,7 +10473,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="26.45">
+    <row r="13" spans="1:6" ht="26.25">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -6811,7 +10487,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="26.45">
+    <row r="14" spans="1:6" ht="26.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -6823,7 +10499,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="26.45">
+    <row r="15" spans="1:6" ht="26.25">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -6851,7 +10527,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="26.25">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -6877,7 +10553,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" ht="26.45">
+    <row r="19" spans="1:6" ht="26.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -6891,7 +10567,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.45">
+    <row r="20" spans="1:6" ht="26.25">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -6917,7 +10593,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" ht="39.6">
+    <row r="22" spans="1:6" ht="39">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -6931,7 +10607,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" ht="39.6">
+    <row r="23" spans="1:6" ht="39">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -6955,7 +10631,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" ht="26.45">
+    <row r="25" spans="1:6" ht="26.25">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
@@ -6969,7 +10645,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="26.45">
+    <row r="26" spans="1:6" ht="26.25">
       <c r="A26" s="2" t="s">
         <v>76</v>
       </c>
@@ -6983,7 +10659,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" ht="26.45">
+    <row r="27" spans="1:6" ht="26.25">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -6997,7 +10673,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" ht="26.45">
+    <row r="28" spans="1:6" ht="26.25">
       <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
@@ -7033,7 +10709,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" ht="52.5">
+    <row r="31" spans="1:6" ht="51.75">
       <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
@@ -7047,7 +10723,7 @@
       </c>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" ht="26.45">
+    <row r="32" spans="1:6" ht="26.25">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -7085,7 +10761,7 @@
       </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" ht="26.45">
+    <row r="35" spans="1:6" ht="26.25">
       <c r="A35" s="2" t="s">
         <v>100</v>
       </c>
@@ -7111,7 +10787,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" ht="104.45">
+    <row r="37" spans="1:6" ht="102.75">
       <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
@@ -7125,7 +10801,7 @@
       </c>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" ht="26.45">
+    <row r="38" spans="1:6" ht="26.25">
       <c r="A38" s="2" t="s">
         <v>108</v>
       </c>
@@ -7139,7 +10815,7 @@
       </c>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" ht="39.6">
+    <row r="39" spans="1:6" ht="39">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -7163,7 +10839,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" ht="39.6">
+    <row r="41" spans="1:6" ht="39">
       <c r="A41" s="2" t="s">
         <v>116</v>
       </c>
@@ -7177,7 +10853,7 @@
       </c>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6" ht="26.45">
+    <row r="42" spans="1:6" ht="26.25">
       <c r="A42" s="2" t="s">
         <v>119</v>
       </c>
@@ -7191,7 +10867,7 @@
       </c>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6" ht="26.45">
+    <row r="43" spans="1:6" ht="39">
       <c r="A43" s="2" t="s">
         <v>122</v>
       </c>
@@ -7215,7 +10891,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6" ht="39.6">
+    <row r="45" spans="1:6" ht="39">
       <c r="A45" s="2" t="s">
         <v>127</v>
       </c>
@@ -7313,7 +10989,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:6" ht="26.45">
+    <row r="53" spans="1:6" ht="26.25">
       <c r="A53" s="2" t="s">
         <v>145</v>
       </c>
@@ -7327,7 +11003,7 @@
       </c>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="1:6" ht="65.45">
+    <row r="54" spans="1:6" ht="64.5">
       <c r="A54" t="s">
         <v>148</v>
       </c>
@@ -7693,7 +11369,7 @@
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
     </row>
-    <row r="85" spans="1:6" ht="39.6">
+    <row r="85" spans="1:6" ht="39">
       <c r="A85" s="2" t="s">
         <v>214</v>
       </c>
@@ -7719,7 +11395,7 @@
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
     </row>
-    <row r="87" spans="1:6" ht="130.5">
+    <row r="87" spans="1:6" ht="128.25">
       <c r="A87" s="2" t="s">
         <v>219</v>
       </c>
@@ -7745,7 +11421,7 @@
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
     </row>
-    <row r="89" spans="1:6" ht="52.5">
+    <row r="89" spans="1:6" ht="51.75">
       <c r="A89" t="s">
         <v>212</v>
       </c>
@@ -7757,7 +11433,7 @@
       </c>
       <c r="F89" s="12"/>
     </row>
-    <row r="90" spans="1:6" ht="26.45">
+    <row r="90" spans="1:6" ht="26.25">
       <c r="A90" s="2" t="s">
         <v>214</v>
       </c>
@@ -7797,7 +11473,7 @@
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
     </row>
-    <row r="93" spans="1:6" ht="26.45">
+    <row r="93" spans="1:6" ht="26.25">
       <c r="A93" s="2" t="s">
         <v>230</v>
       </c>
@@ -7965,7 +11641,7 @@
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
     </row>
-    <row r="107" spans="1:6" ht="26.45">
+    <row r="107" spans="1:6" ht="26.25">
       <c r="A107" s="2" t="s">
         <v>261</v>
       </c>
@@ -7979,7 +11655,7 @@
       </c>
       <c r="F107" s="12"/>
     </row>
-    <row r="108" spans="1:6" ht="26.45">
+    <row r="108" spans="1:6" ht="26.25">
       <c r="A108" s="2" t="s">
         <v>264</v>
       </c>
@@ -8101,7 +11777,7 @@
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
     </row>
-    <row r="118" spans="1:6" ht="26.45">
+    <row r="118" spans="1:6" ht="26.25">
       <c r="A118" s="2" t="s">
         <v>287</v>
       </c>
@@ -8115,7 +11791,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="26.45">
+    <row r="119" spans="1:6" ht="26.25">
       <c r="A119" t="s">
         <v>290</v>
       </c>
@@ -8127,7 +11803,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="39.6">
+    <row r="120" spans="1:6" ht="39">
       <c r="A120" s="2" t="s">
         <v>293</v>
       </c>
@@ -8165,7 +11841,7 @@
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
     </row>
-    <row r="123" spans="1:6" ht="39.6">
+    <row r="123" spans="1:6" ht="39">
       <c r="A123" s="2" t="s">
         <v>300</v>
       </c>
@@ -8225,7 +11901,7 @@
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
     </row>
-    <row r="128" spans="1:6" ht="39.6">
+    <row r="128" spans="1:6" ht="39">
       <c r="A128" s="2" t="s">
         <v>311</v>
       </c>
@@ -8359,7 +12035,7 @@
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
     </row>
-    <row r="139" spans="1:6" ht="26.45">
+    <row r="139" spans="1:6" ht="26.25">
       <c r="A139" t="s">
         <v>336</v>
       </c>
@@ -8383,7 +12059,7 @@
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
     </row>
-    <row r="141" spans="1:6" ht="26.45">
+    <row r="141" spans="1:6" ht="26.25">
       <c r="A141" s="2" t="s">
         <v>341</v>
       </c>
@@ -8397,7 +12073,7 @@
       </c>
       <c r="F141" s="12"/>
     </row>
-    <row r="142" spans="1:6" ht="26.45">
+    <row r="142" spans="1:6" ht="26.25">
       <c r="A142" s="2" t="s">
         <v>342</v>
       </c>
@@ -8411,7 +12087,7 @@
       </c>
       <c r="F142" s="12"/>
     </row>
-    <row r="143" spans="1:6" ht="26.45">
+    <row r="143" spans="1:6" ht="26.25">
       <c r="A143" s="2" t="s">
         <v>343</v>
       </c>
@@ -8425,7 +12101,7 @@
       </c>
       <c r="F143" s="12"/>
     </row>
-    <row r="144" spans="1:6" ht="26.45">
+    <row r="144" spans="1:6" ht="26.25">
       <c r="A144" t="s">
         <v>344</v>
       </c>
@@ -8453,7 +12129,7 @@
       </c>
       <c r="F145" s="12"/>
     </row>
-    <row r="146" spans="1:6" ht="26.45">
+    <row r="146" spans="1:6" ht="26.25">
       <c r="A146" s="2" t="s">
         <v>347</v>
       </c>
@@ -8467,7 +12143,7 @@
       </c>
       <c r="F146" s="12"/>
     </row>
-    <row r="147" spans="1:6" ht="39.6">
+    <row r="147" spans="1:6" ht="39">
       <c r="A147" s="2" t="s">
         <v>348</v>
       </c>
@@ -8481,7 +12157,7 @@
       </c>
       <c r="F147" s="12"/>
     </row>
-    <row r="148" spans="1:6" ht="39.6">
+    <row r="148" spans="1:6" ht="39">
       <c r="A148" s="2" t="s">
         <v>349</v>
       </c>
@@ -8495,7 +12171,7 @@
       </c>
       <c r="F148" s="12"/>
     </row>
-    <row r="149" spans="1:6" ht="26.45">
+    <row r="149" spans="1:6" ht="26.25">
       <c r="A149" t="s">
         <v>350</v>
       </c>
@@ -8507,7 +12183,7 @@
       </c>
       <c r="F149" s="12"/>
     </row>
-    <row r="150" spans="1:6" ht="26.45">
+    <row r="150" spans="1:6" ht="26.25">
       <c r="A150" s="2" t="s">
         <v>351</v>
       </c>
@@ -8521,7 +12197,7 @@
       </c>
       <c r="F150" s="12"/>
     </row>
-    <row r="151" spans="1:6" ht="26.45">
+    <row r="151" spans="1:6" ht="26.25">
       <c r="A151" s="2" t="s">
         <v>352</v>
       </c>
@@ -8651,7 +12327,7 @@
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
     </row>
-    <row r="162" spans="1:6" ht="39.6">
+    <row r="162" spans="1:6" ht="39">
       <c r="A162" s="2" t="s">
         <v>373</v>
       </c>
@@ -8665,7 +12341,7 @@
       </c>
       <c r="F162" s="12"/>
     </row>
-    <row r="163" spans="1:6" ht="39.6">
+    <row r="163" spans="1:6" ht="39">
       <c r="A163" s="2" t="s">
         <v>376</v>
       </c>
@@ -8679,7 +12355,7 @@
       </c>
       <c r="F163" s="12"/>
     </row>
-    <row r="164" spans="1:6" ht="39.6">
+    <row r="164" spans="1:6" ht="39">
       <c r="A164" t="s">
         <v>379</v>
       </c>
@@ -8729,7 +12405,7 @@
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
     </row>
-    <row r="168" spans="1:6" ht="26.45">
+    <row r="168" spans="1:6" ht="26.25">
       <c r="A168" s="2" t="s">
         <v>389</v>
       </c>
@@ -8941,7 +12617,7 @@
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
     </row>
-    <row r="186" spans="1:6" ht="26.45">
+    <row r="186" spans="1:6" ht="26.25">
       <c r="A186" s="2" t="s">
         <v>426</v>
       </c>
@@ -9075,7 +12751,7 @@
       </c>
       <c r="F196" s="12"/>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" ht="26.25">
       <c r="A197" s="2" t="s">
         <v>451</v>
       </c>
@@ -9173,7 +12849,7 @@
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
     </row>
-    <row r="205" spans="1:6" ht="26.45">
+    <row r="205" spans="1:6" ht="26.25">
       <c r="A205" s="2" t="s">
         <v>470</v>
       </c>
@@ -9199,7 +12875,7 @@
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
     </row>
-    <row r="207" spans="1:6" ht="26.45">
+    <row r="207" spans="1:6" ht="26.25">
       <c r="A207" s="2" t="s">
         <v>475</v>
       </c>
@@ -9295,7 +12971,7 @@
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
     </row>
-    <row r="215" spans="1:6" ht="26.45">
+    <row r="215" spans="1:6" ht="26.25">
       <c r="A215" s="2" t="s">
         <v>493</v>
       </c>
@@ -10103,7 +13779,7 @@
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
     </row>
-    <row r="283" spans="1:6" ht="26.45">
+    <row r="283" spans="1:6" ht="26.25">
       <c r="A283" s="2" t="s">
         <v>638</v>
       </c>
@@ -10117,7 +13793,7 @@
       </c>
       <c r="F283" s="12"/>
     </row>
-    <row r="284" spans="1:6" ht="26.45">
+    <row r="284" spans="1:6" ht="26.25">
       <c r="A284" t="s">
         <v>641</v>
       </c>
@@ -10423,7 +14099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3991FE2B-C9FE-43D1-B302-70CA3C5EF889}">
   <dimension ref="A1:H188"/>
   <sheetViews>
@@ -10431,7 +14107,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
@@ -13142,15 +16818,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" style="10" customWidth="1"/>
@@ -13166,7 +16842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.6">
+    <row r="2" spans="1:4" ht="24.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -13232,7 +16908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.6">
+    <row r="10" spans="1:4" ht="39">
       <c r="A10" s="2" t="s">
         <v>1082</v>
       </c>
@@ -13254,7 +16930,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="26.45">
+    <row r="12" spans="1:4" ht="26.25">
       <c r="A12" s="2" t="s">
         <v>1087</v>
       </c>
@@ -13264,7 +16940,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="26.45">
+    <row r="13" spans="1:4" ht="39">
       <c r="A13" s="2" t="s">
         <v>1089</v>
       </c>
@@ -13274,7 +16950,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="26.45">
+    <row r="14" spans="1:4" ht="26.25">
       <c r="A14" s="2" t="s">
         <v>1091</v>
       </c>
@@ -13284,7 +16960,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="26.45">
+    <row r="15" spans="1:4" ht="26.25">
       <c r="A15" s="2" t="s">
         <v>1093</v>
       </c>
@@ -13294,7 +16970,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="26.45">
+    <row r="16" spans="1:4" ht="26.25">
       <c r="A16" s="2" t="s">
         <v>1095</v>
       </c>
@@ -13306,7 +16982,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="39.6">
+    <row r="17" spans="1:4" ht="39">
       <c r="A17" s="2" t="s">
         <v>1098</v>
       </c>
@@ -13318,7 +16994,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="39.6">
+    <row r="18" spans="1:4" ht="39">
       <c r="A18" s="2" t="s">
         <v>1101</v>
       </c>
@@ -13328,7 +17004,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="39.6">
+    <row r="19" spans="1:4" ht="39">
       <c r="A19" s="2" t="s">
         <v>1103</v>
       </c>
@@ -13338,7 +17014,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="26.45">
+    <row r="20" spans="1:4" ht="26.25">
       <c r="A20" s="2" t="s">
         <v>1105</v>
       </c>
@@ -13348,7 +17024,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="26.45">
+    <row r="21" spans="1:4" ht="26.25">
       <c r="A21" s="2" t="s">
         <v>1107</v>
       </c>
@@ -13358,7 +17034,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="26.45">
+    <row r="22" spans="1:4" ht="26.25">
       <c r="A22" s="2" t="s">
         <v>1109</v>
       </c>
@@ -13388,7 +17064,7 @@
       <c r="C24" s="12"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="26.45">
+    <row r="25" spans="1:4" ht="26.25">
       <c r="A25" s="2" t="s">
         <v>1115</v>
       </c>
@@ -13418,7 +17094,7 @@
       <c r="C27" s="12"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="26.45">
+    <row r="28" spans="1:4" ht="26.25">
       <c r="A28" s="2" t="s">
         <v>1120</v>
       </c>
@@ -13430,7 +17106,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="26.45">
+    <row r="29" spans="1:4" ht="26.25">
       <c r="A29" s="2" t="s">
         <v>1123</v>
       </c>
@@ -13442,7 +17118,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="26.45">
+    <row r="30" spans="1:4" ht="26.25">
       <c r="A30" s="2" t="s">
         <v>1126</v>
       </c>
@@ -13464,7 +17140,7 @@
       <c r="C31" s="12"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="26.45">
+    <row r="32" spans="1:4" ht="26.25">
       <c r="A32" s="2" t="s">
         <v>1131</v>
       </c>
@@ -13476,7 +17152,7 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="39.6">
+    <row r="33" spans="1:4" ht="39">
       <c r="A33" s="2" t="s">
         <v>1134</v>
       </c>
@@ -13488,7 +17164,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="26.45">
+    <row r="34" spans="1:4" ht="26.25">
       <c r="A34" s="2" t="s">
         <v>1137</v>
       </c>
@@ -13500,7 +17176,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="130.5">
+    <row r="35" spans="1:4" ht="128.25">
       <c r="A35" s="2" t="s">
         <v>1140</v>
       </c>
@@ -13512,7 +17188,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" ht="130.5">
+    <row r="36" spans="1:4" ht="128.25">
       <c r="A36" s="2" t="s">
         <v>1143</v>
       </c>
@@ -13596,7 +17272,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" ht="26.45">
+    <row r="44" spans="1:4" ht="26.25">
       <c r="A44" s="2" t="s">
         <v>1160</v>
       </c>
@@ -13608,7 +17284,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" ht="26.45">
+    <row r="45" spans="1:4" ht="26.25">
       <c r="A45" s="2" t="s">
         <v>1163</v>
       </c>
@@ -13618,7 +17294,7 @@
       <c r="C45" s="12"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" ht="78.599999999999994">
+    <row r="46" spans="1:4" ht="77.25">
       <c r="A46" s="2" t="s">
         <v>1165</v>
       </c>
@@ -13639,15 +17315,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8116353-BC00-4857-8D37-9470DD9A948C}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
@@ -13768,7 +17444,7 @@
       </c>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5" ht="26.45">
+    <row r="13" spans="1:5" ht="26.25">
       <c r="A13" s="2" t="s">
         <v>1177</v>
       </c>
@@ -13792,7 +17468,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" ht="26.45">
+    <row r="15" spans="1:5" ht="26.25">
       <c r="A15" s="2" t="s">
         <v>1182</v>
       </c>
@@ -13805,7 +17481,7 @@
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" ht="26.45">
+    <row r="16" spans="1:5" ht="26.25">
       <c r="A16" s="2" t="s">
         <v>1185</v>
       </c>
@@ -13829,7 +17505,7 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:5" ht="69.599999999999994">
+    <row r="18" spans="1:5" ht="70.5">
       <c r="A18" s="2" t="s">
         <v>1190</v>
       </c>
@@ -13842,7 +17518,7 @@
       </c>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:5" ht="78.599999999999994">
+    <row r="19" spans="1:5" ht="77.25">
       <c r="A19" s="2" t="s">
         <v>1193</v>
       </c>
@@ -13991,7 +17667,7 @@
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" ht="29.1">
+    <row r="32" spans="1:5" ht="30">
       <c r="A32" s="2" t="s">
         <v>1222</v>
       </c>
@@ -14004,7 +17680,7 @@
       </c>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="1:5" ht="26.45">
+    <row r="33" spans="1:5" ht="26.25">
       <c r="A33" s="2" t="s">
         <v>1225</v>
       </c>
@@ -14054,7 +17730,7 @@
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
     </row>
-    <row r="37" spans="1:5" ht="26.45">
+    <row r="37" spans="1:5" ht="26.25">
       <c r="A37" s="2" t="s">
         <v>1236</v>
       </c>
@@ -14067,7 +17743,7 @@
       </c>
       <c r="E37" s="12"/>
     </row>
-    <row r="38" spans="1:5" ht="26.45">
+    <row r="38" spans="1:5" ht="26.25">
       <c r="A38" s="2" t="s">
         <v>1239</v>
       </c>
@@ -14091,7 +17767,7 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" ht="52.5">
+    <row r="40" spans="1:5" ht="51.75">
       <c r="A40" s="2" t="s">
         <v>1244</v>
       </c>
@@ -14128,7 +17804,7 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
     </row>
-    <row r="43" spans="1:5" ht="26.45">
+    <row r="43" spans="1:5" ht="26.25">
       <c r="A43" s="2" t="s">
         <v>1252</v>
       </c>
@@ -14141,7 +17817,7 @@
       </c>
       <c r="E43" s="12"/>
     </row>
-    <row r="44" spans="1:5" ht="39.6">
+    <row r="44" spans="1:5" ht="39">
       <c r="A44" s="2" t="s">
         <v>1253</v>
       </c>
@@ -14200,7 +17876,7 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
     </row>
-    <row r="49" spans="1:5" ht="26.45">
+    <row r="49" spans="1:5" ht="26.25">
       <c r="A49" s="2" t="s">
         <v>1265</v>
       </c>
@@ -14235,7 +17911,7 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:5" ht="26.45">
+    <row r="52" spans="1:5" ht="26.25">
       <c r="A52" s="2" t="s">
         <v>1272</v>
       </c>
@@ -14329,7 +18005,7 @@
       </c>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="1:5" ht="52.5">
+    <row r="60" spans="1:5" ht="51.75">
       <c r="A60" s="2" t="s">
         <v>1291</v>
       </c>
@@ -14363,15 +18039,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E537A6-C63B-444A-987C-2E8C3CA81E02}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D14"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
@@ -14522,15 +18198,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29F356B-BB22-47DE-A619-877383F0285B}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
@@ -14828,41 +18504,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3700FB-CD0A-4D38-965B-161A1B9D93F3}">
-  <dimension ref="A1:E55"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0E0C67-8E04-4A24-A8C2-D8A28C233AFE}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="89" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>1453</v>
       </c>
       <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1354</v>
+        <v>1558</v>
       </c>
       <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -14870,49 +18552,53 @@
         <v>5</v>
       </c>
       <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>1586</v>
       </c>
       <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
-        <v>45218</v>
-      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1169</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -14923,632 +18609,249 @@
         <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1367</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1372</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>1395</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>1397</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>1423</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>1444</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="2" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C55" s="2" t="s">
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="18" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="45">
+      <c r="A11" s="18" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12" s="18" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="18" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="45">
+      <c r="A14" s="18" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="18" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16" s="18" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="45">
+      <c r="A17" s="18" t="s">
         <v>1313</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="B17" s="18" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18" s="18" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="51" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="5f25723db95d46bd813c254178c12b28">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7bc30f4eda6069462a66ebc021061e28" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="b3317a165cd10de70dc68851db9884d1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b8430278eece82d06f551ff77398a68" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
     <xsd:import namespace="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
@@ -15593,6 +18896,7 @@
                 <xsd:element ref="ns2:Ticket_x0020_Changement" minOccurs="0"/>
                 <xsd:element ref="ns2:Environnement" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -15854,6 +19158,11 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="54" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -15954,10 +19263,79 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{324FF53B-7AD3-49DF-9C53-2DBAFD305BC0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD036102-29D9-4EAA-A051-1584354EFFAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98DD80EA-A491-4793-8457-6C1329EF64E4}"/>
 </file>